--- a/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>85.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.52</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>011068</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>华宝资源优选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.34</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.37</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>34.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>34.41</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.64</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,324 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1104,4 +1105,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1324</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1427,4 +1428,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1436,7 +1437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,17 +1448,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1467,14 +1488,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.25</v>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1483,14 +1526,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.18</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3531</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1499,14 +1564,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1515,13 +1602,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1949,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1960,17 +1961,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1980,14 +2001,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.05</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1996,14 +2039,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.25</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4761</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2012,14 +2077,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.18</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2028,14 +2115,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2044,13 +2153,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7277</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6868</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2424,7 +2425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2435,17 +2436,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2455,14 +2476,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.51</v>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2471,14 +2514,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.05</v>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2487,14 +2552,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.25</v>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2503,14 +2590,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>7.18</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6">
@@ -2519,14 +2728,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="7">
@@ -2535,13 +2744,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>12.51</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>7.05</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>3.25</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>7.18</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1786,328 +1935,6 @@
       </c>
       <c r="H13" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2000</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1324</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7231</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1128</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001686</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>37.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001687</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>37.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2172,36 +1999,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>79.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5135</t>
+          <t>1.2000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2210,36 +2037,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>21.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>63.86</t>
+          <t>74.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3609</t>
+          <t>1.1324</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2248,36 +2075,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>57.92</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2481</t>
+          <t>0.7231</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2286,36 +2113,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.53</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>59.02</t>
+          <t>82.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8765</t>
+          <t>0.1128</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2324,36 +2151,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>001686</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>安信新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.81</t>
+          <t>37.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1598</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2362,36 +2189,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004284</t>
+          <t>001687</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
+          <t>安信新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>53.81</t>
+          <t>37.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2410,24 +2237,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.81</t>
+          <t>82.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2436,6 +2265,326 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2567,7 +2716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600459-贵研铂业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>12.51</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>7.05</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>7.18</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -616,7 +633,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -956,7 +1579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1430,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1935,328 +2558,6 @@
       </c>
       <c r="H13" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2000</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1324</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7231</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1128</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001686</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>37.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001687</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>37.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2321,36 +2622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>79.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5135</t>
+          <t>1.2000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2359,36 +2660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>21.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>63.86</t>
+          <t>74.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3609</t>
+          <t>1.1324</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2397,36 +2698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>57.92</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2481</t>
+          <t>0.7231</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2435,36 +2736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.53</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>59.02</t>
+          <t>82.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8765</t>
+          <t>0.1128</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2473,36 +2774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>001686</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>安信新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.81</t>
+          <t>37.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1598</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2511,36 +2812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004284</t>
+          <t>001687</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
+          <t>安信新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>53.81</t>
+          <t>37.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2559,24 +2860,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.81</t>
+          <t>82.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2585,6 +2888,326 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2714,212 +3337,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>240022</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4270</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1289</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011068</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1229</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>